--- a/Majlis1/members.xlsx
+++ b/Majlis1/members.xlsx
@@ -913,8 +913,8 @@
   <dimension ref="A1:X72"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1013,16 +1013,19 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="E2" s="1">
-        <v>3032</v>
+        <v>3181</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>154</v>
@@ -1030,19 +1033,19 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>3016</v>
+        <v>3087</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>154</v>
@@ -1050,16 +1053,16 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1">
-        <v>3018</v>
+        <v>3086</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>154</v>
@@ -1067,33 +1070,33 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
-        <v>3019</v>
+        <v>3085</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
-        <v>3025</v>
+        <v>3083</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>154</v>
@@ -1101,16 +1104,16 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
-        <v>3026</v>
+        <v>3084</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>154</v>
@@ -1118,33 +1121,33 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
-        <v>3024</v>
+        <v>3082</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>61</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>117</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="E9" s="1">
-        <v>3028</v>
+        <v>3081</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>154</v>
@@ -1152,19 +1155,16 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1">
-        <v>3181</v>
+        <v>3080</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>154</v>
@@ -1172,33 +1172,33 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1">
-        <v>3027</v>
+        <v>3079</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1">
-        <v>3029</v>
+        <v>3078</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>154</v>
@@ -1206,16 +1206,16 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1">
-        <v>3066</v>
+        <v>3077</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>154</v>
@@ -1223,16 +1223,16 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1">
-        <v>3084</v>
+        <v>3076</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>154</v>
@@ -1240,16 +1240,16 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1">
-        <v>3047</v>
+        <v>3075</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>154</v>
@@ -1257,16 +1257,16 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1">
-        <v>3083</v>
+        <v>3074</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>154</v>
@@ -1274,16 +1274,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
-        <v>47</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>94</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1">
-        <v>3042</v>
+        <v>3073</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>154</v>
@@ -1291,16 +1291,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
-        <v>44</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="E18" s="1">
-        <v>3045</v>
+        <v>3072</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>154</v>
@@ -1308,16 +1308,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1">
-        <v>3046</v>
+        <v>3071</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>154</v>
@@ -1325,16 +1325,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1">
-        <v>3044</v>
+        <v>3069</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>154</v>
@@ -1342,16 +1342,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="E21" s="1">
-        <v>3051</v>
+        <v>3070</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>154</v>
@@ -1359,16 +1359,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
-        <v>37</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>134</v>
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="E22" s="1">
-        <v>3052</v>
+        <v>3068</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>154</v>
@@ -1376,16 +1376,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1">
-        <v>3053</v>
+        <v>3067</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>154</v>
@@ -1393,16 +1393,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
-        <v>35</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>73</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="E24" s="1">
-        <v>3054</v>
+        <v>3065</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>154</v>
@@ -1410,16 +1410,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="E25" s="1">
-        <v>3030</v>
+        <v>3066</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>154</v>
@@ -1427,16 +1427,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
-        <v>58</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>113</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="E26" s="1">
-        <v>3031</v>
+        <v>3064</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>154</v>
@@ -1444,16 +1444,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E27" s="1">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>154</v>
@@ -1461,16 +1461,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E28" s="1">
-        <v>3067</v>
+        <v>3062</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>154</v>
@@ -1478,16 +1478,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E29" s="1">
-        <v>3069</v>
+        <v>3061</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>154</v>
@@ -1495,16 +1495,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
-        <v>20</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="E30" s="1">
-        <v>3070</v>
+        <v>3060</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>154</v>
@@ -1512,16 +1512,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E31" s="1">
-        <v>3071</v>
+        <v>3059</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>154</v>
@@ -1529,16 +1529,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="E32" s="1">
-        <v>3078</v>
+        <v>3057</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>154</v>
@@ -1546,16 +1546,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E33" s="1">
-        <v>3074</v>
+        <v>3058</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>154</v>
@@ -1563,16 +1563,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
-        <v>14</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="E34" s="1">
-        <v>3075</v>
+        <v>3056</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>154</v>
@@ -1580,16 +1580,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E35" s="1">
-        <v>3076</v>
+        <v>3055</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>154</v>
@@ -1597,16 +1597,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="E36" s="1">
-        <v>3077</v>
+        <v>3054</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>154</v>
@@ -1614,16 +1614,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E37" s="1">
-        <v>3073</v>
+        <v>3053</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>154</v>
@@ -1631,16 +1631,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
-        <v>17</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="E38" s="1">
-        <v>3072</v>
+        <v>3052</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>154</v>
@@ -1648,19 +1648,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="E39" s="1">
-        <v>3087</v>
+        <v>3050</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>154</v>
@@ -1668,16 +1665,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="E40" s="1">
-        <v>3017</v>
+        <v>3051</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>154</v>
@@ -1685,16 +1682,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1">
-        <v>3081</v>
+        <v>3049</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>154</v>
@@ -1702,33 +1699,33 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="E42" s="1">
-        <v>3082</v>
+        <v>3048</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E43" s="1">
-        <v>3055</v>
+        <v>3047</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>154</v>
@@ -1736,16 +1733,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="E44" s="1">
-        <v>3079</v>
+        <v>3046</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>154</v>
@@ -1753,16 +1750,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="E45" s="1">
-        <v>3023</v>
+        <v>3045</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>154</v>
@@ -1770,16 +1767,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1">
-        <v>3035</v>
+        <v>3044</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>154</v>
@@ -1787,16 +1784,16 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="E47" s="1">
-        <v>3034</v>
+        <v>3043</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>154</v>
@@ -1804,16 +1801,16 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
-        <v>56</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>110</v>
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="E48" s="1">
-        <v>3033</v>
+        <v>3042</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>154</v>
@@ -1821,16 +1818,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="E49" s="1">
-        <v>3036</v>
+        <v>3041</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>154</v>
@@ -1838,16 +1835,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E50" s="1">
-        <v>3037</v>
+        <v>3040</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>154</v>
@@ -1872,16 +1869,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="E52" s="1">
-        <v>3049</v>
+        <v>3038</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>154</v>
@@ -1889,16 +1886,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="E53" s="1">
-        <v>3050</v>
+        <v>3036</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>154</v>
@@ -1906,16 +1903,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>33</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>69</v>
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="E54" s="1">
-        <v>3056</v>
+        <v>3037</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>154</v>
@@ -1923,16 +1920,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="E55" s="1">
-        <v>3041</v>
+        <v>3035</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>154</v>
@@ -1940,16 +1937,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E56" s="1">
-        <v>3040</v>
+        <v>3034</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>154</v>
@@ -1957,16 +1954,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="E57" s="1">
-        <v>3057</v>
+        <v>3033</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>154</v>
@@ -1974,16 +1971,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="E58" s="1">
-        <v>3059</v>
+        <v>3032</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>154</v>
@@ -1991,16 +1988,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
-        <v>29</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="E59" s="1">
-        <v>3060</v>
+        <v>3031</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>154</v>
@@ -2008,16 +2005,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="E60" s="1">
-        <v>3058</v>
+        <v>3030</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>154</v>
@@ -2025,16 +2022,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="E61" s="1">
-        <v>3061</v>
+        <v>3029</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>154</v>
@@ -2042,16 +2039,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
-        <v>27</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="E62" s="1">
-        <v>3062</v>
+        <v>3028</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>154</v>
@@ -2059,16 +2056,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="E63" s="1">
-        <v>3021</v>
+        <v>3027</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>155</v>
@@ -2076,16 +2073,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E64" s="1">
-        <v>3080</v>
+        <v>3026</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>154</v>
@@ -2093,16 +2090,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E65" s="1">
-        <v>3048</v>
+        <v>3025</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>154</v>
@@ -2110,16 +2107,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="E66" s="1">
-        <v>3086</v>
+        <v>3024</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>154</v>
@@ -2127,16 +2124,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="E67" s="1">
-        <v>3038</v>
+        <v>3023</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>154</v>
@@ -2144,33 +2141,33 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
-        <v>26</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="E68" s="1">
-        <v>3063</v>
+        <v>3021</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
-        <v>25</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="E69" s="1">
-        <v>3064</v>
+        <v>3019</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>154</v>
@@ -2178,16 +2175,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
-        <v>23</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>48</v>
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="E70" s="1">
-        <v>3065</v>
+        <v>3018</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>154</v>
@@ -2195,16 +2192,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="E71" s="1">
-        <v>3043</v>
+        <v>3017</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>154</v>
@@ -2212,25 +2209,28 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>11</v>
+        <v>57</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="E72" s="1">
-        <v>3085</v>
+        <v>3016</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:X72">
-    <sortState ref="A2:T72">
-      <sortCondition ref="B1:B72"/>
+    <sortState ref="A2:X72">
+      <sortCondition ref="A1:A72"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
